--- a/2010/hacking/FamaFrench/data/output/spreadsheets/dffvx_regression.xlsx
+++ b/2010/hacking/FamaFrench/data/output/spreadsheets/dffvx_regression.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="22995" windowHeight="10545"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="11820"/>
   </bookViews>
   <sheets>
-    <sheet name="dffvx_regression" sheetId="1" r:id="rId1"/>
+    <sheet name="DFFVX_regression" sheetId="1" r:id="rId1"/>
+    <sheet name="last 5 years" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="152">
   <si>
     <t>Month</t>
   </si>
   <si>
-    <t>dffvx adjusted close</t>
+    <t>DFFVX adjusted close</t>
   </si>
   <si>
     <t>Return</t>
@@ -476,7 +477,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +609,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -982,14 +991,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -1342,34 +1354,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1505,10 +1526,10 @@
       <c r="I6">
         <v>0.39</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1535,10 +1556,10 @@
       <c r="I7">
         <v>0.32</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>0.93182414971120731</v>
       </c>
     </row>
@@ -1567,10 +1588,10 @@
       <c r="I8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>0.86829624598501443</v>
       </c>
     </row>
@@ -1599,10 +1620,10 @@
       <c r="I9">
         <v>0.3</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>0.86489011441566144</v>
       </c>
     </row>
@@ -1631,10 +1652,10 @@
       <c r="I10">
         <v>0.31</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>2.49541452110864</v>
       </c>
     </row>
@@ -1663,10 +1684,10 @@
       <c r="I11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3">
         <v>120</v>
       </c>
     </row>
@@ -1750,20 +1771,20 @@
       <c r="I14">
         <v>0.15</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="4" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1792,22 +1813,22 @@
       <c r="I15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
         <v>3</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
         <v>4762.2605710693715</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="2">
         <v>1587.4201903564572</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="2">
         <v>254.92152264392101</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="2">
         <v>6.9750134769979685E-51</v>
       </c>
     </row>
@@ -1836,20 +1857,20 @@
       <c r="I16">
         <v>0.13</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <v>116</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <v>722.34286133054422</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="2">
         <v>6.227093632159864</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1876,18 +1897,18 @@
       <c r="I17">
         <v>0.13</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="3">
         <v>119</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="3">
         <v>5484.6034323999156</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1940,29 +1961,29 @@
       <c r="I19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3" t="s">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="S19" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1991,31 +2012,31 @@
       <c r="I20">
         <v>0.13</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="2">
         <v>-0.50977534564369009</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="2">
         <v>0.23505714680788728</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="2">
         <v>-2.1687294028984816</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="2">
         <v>3.2144536439016512E-2</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="2">
         <v>-0.97533564267523531</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="2">
         <v>-4.4215048612144869E-2</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="2">
         <v>-0.97533564267523531</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="2">
         <v>-4.4215048612144869E-2</v>
       </c>
     </row>
@@ -2044,31 +2065,31 @@
       <c r="I21">
         <v>0.15</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="2">
         <v>0.99889641881543567</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="2">
         <v>4.9555279057154081E-2</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="2">
         <v>20.157215090310935</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="2">
         <v>1.0491196385600014E-39</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="2">
         <v>0.90074594455571988</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="2">
         <v>1.0970468930751514</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="2">
         <v>0.90074594455571988</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="2">
         <v>1.0970468930751514</v>
       </c>
     </row>
@@ -2097,31 +2118,31 @@
       <c r="I22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="2">
         <v>0.84223533672048745</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="2">
         <v>8.832618043335777E-2</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="2">
         <v>9.5355118107473835</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="2">
         <v>2.9110731972948081E-16</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="2">
         <v>0.66729420705628573</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="2">
         <v>1.0171764663846892</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="2">
         <v>0.66729420705628573</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="2">
         <v>1.0171764663846892</v>
       </c>
     </row>
@@ -2150,31 +2171,31 @@
       <c r="I23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="3">
         <v>0.49928839812707893</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="3">
         <v>7.3828889050547825E-2</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="3">
         <v>6.7627781556517155</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="3">
         <v>5.7818823015729234E-10</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="3">
         <v>0.3530609807408967</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="3">
         <v>0.6455158155132612</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="3">
         <v>0.3530609807408967</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="3">
         <v>0.6455158155132612</v>
       </c>
     </row>
@@ -4723,6 +4744,1854 @@
         <v>-0.64</v>
       </c>
       <c r="I121">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:S26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>15.44</v>
+      </c>
+      <c r="C2">
+        <v>-8.6930999999999994</v>
+      </c>
+      <c r="D2">
+        <v>-9.0130999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.03</v>
+      </c>
+      <c r="G2">
+        <v>-0.48</v>
+      </c>
+      <c r="H2">
+        <v>0.48</v>
+      </c>
+      <c r="I2">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3">
+        <v>16.68</v>
+      </c>
+      <c r="C3">
+        <v>8.0311000000000003</v>
+      </c>
+      <c r="D3">
+        <v>7.6810999999999998</v>
+      </c>
+      <c r="F3">
+        <v>3.65</v>
+      </c>
+      <c r="G3">
+        <v>5.38</v>
+      </c>
+      <c r="H3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>16.5</v>
+      </c>
+      <c r="C4">
+        <v>-1.0790999999999999</v>
+      </c>
+      <c r="D4">
+        <v>-1.4191</v>
+      </c>
+      <c r="F4">
+        <v>-0.5</v>
+      </c>
+      <c r="G4">
+        <v>-0.37</v>
+      </c>
+      <c r="H4">
+        <v>-0.84</v>
+      </c>
+      <c r="I4">
+        <v>0.34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>17.18</v>
+      </c>
+      <c r="C5">
+        <v>4.1212</v>
+      </c>
+      <c r="D5">
+        <v>3.7511999999999999</v>
+      </c>
+      <c r="F5">
+        <v>1.54</v>
+      </c>
+      <c r="G5">
+        <v>3.52</v>
+      </c>
+      <c r="H5">
+        <v>-0.02</v>
+      </c>
+      <c r="I5">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C6">
+        <v>1.2806</v>
+      </c>
+      <c r="D6">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.94</v>
+      </c>
+      <c r="G6">
+        <v>-1.21</v>
+      </c>
+      <c r="H6">
+        <v>3.06</v>
+      </c>
+      <c r="I6">
+        <v>0.36</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>16.8</v>
+      </c>
+      <c r="C7">
+        <v>-3.4483000000000001</v>
+      </c>
+      <c r="D7">
+        <v>-3.8782999999999999</v>
+      </c>
+      <c r="F7">
+        <v>-3.53</v>
+      </c>
+      <c r="G7">
+        <v>-2.99</v>
+      </c>
+      <c r="H7">
+        <v>2.72</v>
+      </c>
+      <c r="I7">
+        <v>0.43</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.96840465246714991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>16.84</v>
+      </c>
+      <c r="C8">
+        <v>0.23810000000000001</v>
+      </c>
+      <c r="D8">
+        <v>-0.16189999999999999</v>
+      </c>
+      <c r="F8">
+        <v>-0.44</v>
+      </c>
+      <c r="G8">
+        <v>-0.47</v>
+      </c>
+      <c r="H8">
+        <v>1.48</v>
+      </c>
+      <c r="I8">
+        <v>0.4</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.93780757092002143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9">
+        <v>16.32</v>
+      </c>
+      <c r="C9">
+        <v>-3.0878999999999999</v>
+      </c>
+      <c r="D9">
+        <v>-3.4878999999999998</v>
+      </c>
+      <c r="F9">
+        <v>-0.59</v>
+      </c>
+      <c r="G9">
+        <v>-3.91</v>
+      </c>
+      <c r="H9">
+        <v>3.28</v>
+      </c>
+      <c r="I9">
+        <v>0.4</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.93447583364787967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="C10">
+        <v>2.2671999999999999</v>
+      </c>
+      <c r="D10">
+        <v>1.8472</v>
+      </c>
+      <c r="F10">
+        <v>2.09</v>
+      </c>
+      <c r="G10">
+        <v>0.79</v>
+      </c>
+      <c r="H10">
+        <v>-1.72</v>
+      </c>
+      <c r="I10">
+        <v>0.42</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.8856936055592883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.309</v>
+      </c>
+      <c r="F11">
+        <v>1.53</v>
+      </c>
+      <c r="G11">
+        <v>-1.19</v>
+      </c>
+      <c r="H11">
+        <v>-0.45</v>
+      </c>
+      <c r="I11">
+        <v>0.41</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12">
+        <v>17.64</v>
+      </c>
+      <c r="C12">
+        <v>4.9375</v>
+      </c>
+      <c r="D12">
+        <v>4.5274999999999999</v>
+      </c>
+      <c r="F12">
+        <v>3.3</v>
+      </c>
+      <c r="G12">
+        <v>1.68</v>
+      </c>
+      <c r="H12">
+        <v>0.48</v>
+      </c>
+      <c r="I12">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="C13">
+        <v>3.4014000000000002</v>
+      </c>
+      <c r="D13">
+        <v>2.9813999999999998</v>
+      </c>
+      <c r="F13">
+        <v>1.95</v>
+      </c>
+      <c r="G13">
+        <v>0.7</v>
+      </c>
+      <c r="H13">
+        <v>0.46</v>
+      </c>
+      <c r="I13">
+        <v>0.42</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>16.84</v>
+      </c>
+      <c r="C14">
+        <v>-7.6753999999999998</v>
+      </c>
+      <c r="D14">
+        <v>-8.0754000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.68</v>
+      </c>
+      <c r="G14">
+        <v>-0.9</v>
+      </c>
+      <c r="H14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I14">
+        <v>0.4</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="C15">
+        <v>2.0783999999999998</v>
+      </c>
+      <c r="D15">
+        <v>1.6384000000000001</v>
+      </c>
+      <c r="F15">
+        <v>1.5</v>
+      </c>
+      <c r="G15">
+        <v>0.04</v>
+      </c>
+      <c r="H15">
+        <v>-0.09</v>
+      </c>
+      <c r="I15">
+        <v>0.44</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3002.6623512431911</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1000.887450414397</v>
+      </c>
+      <c r="O15" s="2">
+        <v>281.4770476536342</v>
+      </c>
+      <c r="P15" s="2">
+        <v>9.8397790680097051E-34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C16">
+        <v>-0.52359999999999995</v>
+      </c>
+      <c r="D16">
+        <v>-0.90359999999999996</v>
+      </c>
+      <c r="F16">
+        <v>-1.78</v>
+      </c>
+      <c r="G16">
+        <v>1.39</v>
+      </c>
+      <c r="H16">
+        <v>0.31</v>
+      </c>
+      <c r="I16">
+        <v>0.38</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" s="2">
+        <v>56</v>
+      </c>
+      <c r="M16" s="2">
+        <v>199.12706094664256</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3.5558403740471887</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17">
+        <v>17.22</v>
+      </c>
+      <c r="C17">
+        <v>0.70179999999999998</v>
+      </c>
+      <c r="D17">
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.87</v>
+      </c>
+      <c r="G17">
+        <v>-0.19</v>
+      </c>
+      <c r="H17">
+        <v>0.32</v>
+      </c>
+      <c r="I17">
+        <v>0.43</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="3">
+        <v>59</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3201.7894121898335</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18">
+        <v>17.57</v>
+      </c>
+      <c r="C18">
+        <v>2.0325000000000002</v>
+      </c>
+      <c r="D18">
+        <v>1.5925</v>
+      </c>
+      <c r="F18">
+        <v>3.55</v>
+      </c>
+      <c r="G18">
+        <v>-2.11</v>
+      </c>
+      <c r="H18">
+        <v>-0.96</v>
+      </c>
+      <c r="I18">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="C19">
+        <v>4.3255999999999997</v>
+      </c>
+      <c r="D19">
+        <v>3.9156</v>
+      </c>
+      <c r="F19">
+        <v>3.48</v>
+      </c>
+      <c r="G19">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H19">
+        <v>-0.08</v>
+      </c>
+      <c r="I19">
+        <v>0.41</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20">
+        <v>18.05</v>
+      </c>
+      <c r="C20">
+        <v>-1.5276000000000001</v>
+      </c>
+      <c r="D20">
+        <v>-1.9276</v>
+      </c>
+      <c r="F20">
+        <v>-1.87</v>
+      </c>
+      <c r="G20">
+        <v>0.65</v>
+      </c>
+      <c r="H20">
+        <v>-1.05</v>
+      </c>
+      <c r="I20">
+        <v>0.4</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="2">
+        <v>-0.5055703249084148</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.24594981334284921</v>
+      </c>
+      <c r="N20" s="2">
+        <v>-2.0555832835850123</v>
+      </c>
+      <c r="O20" s="2">
+        <v>4.4496695987828697E-2</v>
+      </c>
+      <c r="P20" s="2">
+        <v>-0.99826700578984418</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>-1.2873644026985431E-2</v>
+      </c>
+      <c r="R20" s="2">
+        <v>-0.99826700578984418</v>
+      </c>
+      <c r="S20" s="2">
+        <v>-1.2873644026985431E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="C21">
+        <v>-7.2576000000000001</v>
+      </c>
+      <c r="D21">
+        <v>-7.6576000000000004</v>
+      </c>
+      <c r="F21">
+        <v>-3.57</v>
+      </c>
+      <c r="G21">
+        <v>-2.71</v>
+      </c>
+      <c r="H21">
+        <v>-2.97</v>
+      </c>
+      <c r="I21">
+        <v>0.4</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.99421104278232875</v>
+      </c>
+      <c r="M21" s="2">
+        <v>5.3128177197106108E-2</v>
+      </c>
+      <c r="N21" s="2">
+        <v>18.713441628042219</v>
+      </c>
+      <c r="O21" s="2">
+        <v>9.1556653425385203E-26</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.88778251490292071</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1.1006395706617367</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.88778251490292071</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1.1006395706617367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="C22">
+        <v>-0.29870000000000002</v>
+      </c>
+      <c r="D22">
+        <v>-0.71870000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.75</v>
+      </c>
+      <c r="G22">
+        <v>-0.13</v>
+      </c>
+      <c r="H22">
+        <v>-2.35</v>
+      </c>
+      <c r="I22">
+        <v>0.42</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.91281817292684642</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.10938373745344125</v>
+      </c>
+      <c r="N22" s="2">
+        <v>8.3450995017918803</v>
+      </c>
+      <c r="O22" s="2">
+        <v>2.0980935606126425E-11</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.69369621608034782</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1.1319401297733451</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.69369621608034782</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1.1319401297733451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23">
+        <v>16.66</v>
+      </c>
+      <c r="C23">
+        <v>-0.1797</v>
+      </c>
+      <c r="D23">
+        <v>-0.49969999999999998</v>
+      </c>
+      <c r="F23">
+        <v>3.77</v>
+      </c>
+      <c r="G23">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="H23">
+        <v>-2.09</v>
+      </c>
+      <c r="I23">
+        <v>0.32</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.39096154038208103</v>
+      </c>
+      <c r="M23" s="3">
+        <v>9.3405558115278259E-2</v>
+      </c>
+      <c r="N23" s="3">
+        <v>4.185634648203358</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1.0138329435831069E-4</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.20384772299884427</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.57807535776531782</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0.20384772299884427</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.57807535776531782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24">
+        <v>16.7</v>
+      </c>
+      <c r="C24">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="D24">
+        <v>-7.9899999999999999E-2</v>
+      </c>
+      <c r="F24">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.08</v>
+      </c>
+      <c r="H24">
+        <v>-1.98</v>
+      </c>
+      <c r="I24">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25">
+        <v>15.51</v>
+      </c>
+      <c r="C25">
+        <v>-7.1257000000000001</v>
+      </c>
+      <c r="D25">
+        <v>-7.4657</v>
+      </c>
+      <c r="F25">
+        <v>-5.27</v>
+      </c>
+      <c r="G25">
+        <v>-2.74</v>
+      </c>
+      <c r="H25">
+        <v>-0.99</v>
+      </c>
+      <c r="I25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26">
+        <v>14.9</v>
+      </c>
+      <c r="C26">
+        <v>-3.9329000000000001</v>
+      </c>
+      <c r="D26">
+        <v>-4.2028999999999996</v>
+      </c>
+      <c r="F26">
+        <v>-0.7</v>
+      </c>
+      <c r="G26">
+        <v>0.06</v>
+      </c>
+      <c r="H26">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I26">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27">
+        <v>14.19</v>
+      </c>
+      <c r="C27">
+        <v>-4.7651000000000003</v>
+      </c>
+      <c r="D27">
+        <v>-4.9751000000000003</v>
+      </c>
+      <c r="F27">
+        <v>-6.44</v>
+      </c>
+      <c r="G27">
+        <v>-0.76</v>
+      </c>
+      <c r="H27">
+        <v>3.05</v>
+      </c>
+      <c r="I27">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28">
+        <v>13.83</v>
+      </c>
+      <c r="C28">
+        <v>-2.5369999999999999</v>
+      </c>
+      <c r="D28">
+        <v>-2.6669999999999998</v>
+      </c>
+      <c r="F28">
+        <v>-2.33</v>
+      </c>
+      <c r="G28">
+        <v>-0.54</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29">
+        <v>13.92</v>
+      </c>
+      <c r="C29">
+        <v>0.65080000000000005</v>
+      </c>
+      <c r="D29">
+        <v>0.48080000000000001</v>
+      </c>
+      <c r="F29">
+        <v>-1.21</v>
+      </c>
+      <c r="G29">
+        <v>0.85</v>
+      </c>
+      <c r="H29">
+        <v>0.19</v>
+      </c>
+      <c r="I29">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30">
+        <v>14.38</v>
+      </c>
+      <c r="C30">
+        <v>3.3046000000000002</v>
+      </c>
+      <c r="D30">
+        <v>3.1345999999999998</v>
+      </c>
+      <c r="F30">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G30">
+        <v>-1.53</v>
+      </c>
+      <c r="H30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I30">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31">
+        <v>15.04</v>
+      </c>
+      <c r="C31">
+        <v>4.5896999999999997</v>
+      </c>
+      <c r="D31">
+        <v>4.4196999999999997</v>
+      </c>
+      <c r="F31">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G31">
+        <v>2.87</v>
+      </c>
+      <c r="H31">
+        <v>-0.31</v>
+      </c>
+      <c r="I31">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32">
+        <v>13.49</v>
+      </c>
+      <c r="C32">
+        <v>-10.305899999999999</v>
+      </c>
+      <c r="D32">
+        <v>-10.475899999999999</v>
+      </c>
+      <c r="F32">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="G32">
+        <v>1.08</v>
+      </c>
+      <c r="H32">
+        <v>-1.05</v>
+      </c>
+      <c r="I32">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33">
+        <v>13.84</v>
+      </c>
+      <c r="C33">
+        <v>2.5945</v>
+      </c>
+      <c r="D33">
+        <v>2.4445000000000001</v>
+      </c>
+      <c r="F33">
+        <v>-1.47</v>
+      </c>
+      <c r="G33">
+        <v>3.71</v>
+      </c>
+      <c r="H33">
+        <v>3.61</v>
+      </c>
+      <c r="I33">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>14.46</v>
+      </c>
+      <c r="C34">
+        <v>4.4798</v>
+      </c>
+      <c r="D34">
+        <v>4.3597999999999999</v>
+      </c>
+      <c r="F34">
+        <v>0.99</v>
+      </c>
+      <c r="G34">
+        <v>3.76</v>
+      </c>
+      <c r="H34">
+        <v>1.46</v>
+      </c>
+      <c r="I34">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35">
+        <v>13.55</v>
+      </c>
+      <c r="C35">
+        <v>-6.2931999999999997</v>
+      </c>
+      <c r="D35">
+        <v>-6.4432</v>
+      </c>
+      <c r="F35">
+        <v>-9.9600000000000009</v>
+      </c>
+      <c r="G35">
+        <v>-0.24</v>
+      </c>
+      <c r="H35">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="I35">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36">
+        <v>10.61</v>
+      </c>
+      <c r="C36">
+        <v>-21.697399999999998</v>
+      </c>
+      <c r="D36">
+        <v>-21.7774</v>
+      </c>
+      <c r="F36">
+        <v>-18.54</v>
+      </c>
+      <c r="G36">
+        <v>-2.12</v>
+      </c>
+      <c r="H36">
+        <v>-3.13</v>
+      </c>
+      <c r="I36">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37">
+        <v>9.23</v>
+      </c>
+      <c r="C37">
+        <v>-13.006600000000001</v>
+      </c>
+      <c r="D37">
+        <v>-13.0266</v>
+      </c>
+      <c r="F37">
+        <v>-8.5500000000000007</v>
+      </c>
+      <c r="G37">
+        <v>-3.62</v>
+      </c>
+      <c r="H37">
+        <v>-4.93</v>
+      </c>
+      <c r="I37">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38">
+        <v>9.83</v>
+      </c>
+      <c r="C38">
+        <v>6.5004999999999997</v>
+      </c>
+      <c r="D38">
+        <v>6.4104999999999999</v>
+      </c>
+      <c r="F38">
+        <v>2.06</v>
+      </c>
+      <c r="G38">
+        <v>4.04</v>
+      </c>
+      <c r="H38">
+        <v>-1.28</v>
+      </c>
+      <c r="I38">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39">
+        <v>8.48</v>
+      </c>
+      <c r="C39">
+        <v>-13.733499999999999</v>
+      </c>
+      <c r="D39">
+        <v>-13.733499999999999</v>
+      </c>
+      <c r="F39">
+        <v>-7.75</v>
+      </c>
+      <c r="G39">
+        <v>-0.91</v>
+      </c>
+      <c r="H39">
+        <v>-9.93</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40">
+        <v>7.36</v>
+      </c>
+      <c r="C40">
+        <v>-13.2075</v>
+      </c>
+      <c r="D40">
+        <v>-13.217499999999999</v>
+      </c>
+      <c r="F40">
+        <v>-10.119999999999999</v>
+      </c>
+      <c r="G40">
+        <v>-0.41</v>
+      </c>
+      <c r="H40">
+        <v>-6.73</v>
+      </c>
+      <c r="I40">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41">
+        <v>8.17</v>
+      </c>
+      <c r="C41">
+        <v>11.0054</v>
+      </c>
+      <c r="D41">
+        <v>10.9954</v>
+      </c>
+      <c r="F41">
+        <v>8.76</v>
+      </c>
+      <c r="G41">
+        <v>0.74</v>
+      </c>
+      <c r="H41">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42">
+        <v>9.76</v>
+      </c>
+      <c r="C42">
+        <v>19.461400000000001</v>
+      </c>
+      <c r="D42">
+        <v>19.4514</v>
+      </c>
+      <c r="F42">
+        <v>11.04</v>
+      </c>
+      <c r="G42">
+        <v>5.14</v>
+      </c>
+      <c r="H42">
+        <v>5.74</v>
+      </c>
+      <c r="I42">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43">
+        <v>10.09</v>
+      </c>
+      <c r="C43">
+        <v>3.3811</v>
+      </c>
+      <c r="D43">
+        <v>3.3811</v>
+      </c>
+      <c r="F43">
+        <v>6.73</v>
+      </c>
+      <c r="G43">
+        <v>-2.61</v>
+      </c>
+      <c r="H43">
+        <v>0.44</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44">
+        <v>10.06</v>
+      </c>
+      <c r="C44">
+        <v>-0.29730000000000001</v>
+      </c>
+      <c r="D44">
+        <v>-0.29730000000000001</v>
+      </c>
+      <c r="F44">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G44">
+        <v>2.64</v>
+      </c>
+      <c r="H44">
+        <v>-2.48</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45">
+        <v>11.26</v>
+      </c>
+      <c r="C45">
+        <v>11.9284</v>
+      </c>
+      <c r="D45">
+        <v>11.9184</v>
+      </c>
+      <c r="F45">
+        <v>8.24</v>
+      </c>
+      <c r="G45">
+        <v>2.48</v>
+      </c>
+      <c r="H45">
+        <v>4.83</v>
+      </c>
+      <c r="I45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46">
+        <v>11.86</v>
+      </c>
+      <c r="C46">
+        <v>5.3285999999999998</v>
+      </c>
+      <c r="D46">
+        <v>5.3186</v>
+      </c>
+      <c r="F46">
+        <v>3.18</v>
+      </c>
+      <c r="G46">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="H46">
+        <v>7.62</v>
+      </c>
+      <c r="I46">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47">
+        <v>12.52</v>
+      </c>
+      <c r="C47">
+        <v>5.5648999999999997</v>
+      </c>
+      <c r="D47">
+        <v>5.5648999999999997</v>
+      </c>
+      <c r="F47">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="G47">
+        <v>2.36</v>
+      </c>
+      <c r="H47">
+        <v>1.5</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48">
+        <v>11.62</v>
+      </c>
+      <c r="C48">
+        <v>-7.1885000000000003</v>
+      </c>
+      <c r="D48">
+        <v>-7.1885000000000003</v>
+      </c>
+      <c r="F48">
+        <v>-2.84</v>
+      </c>
+      <c r="G48">
+        <v>-4.28</v>
+      </c>
+      <c r="H48">
+        <v>-4.38</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49">
+        <v>12.01</v>
+      </c>
+      <c r="C49">
+        <v>3.3563000000000001</v>
+      </c>
+      <c r="D49">
+        <v>3.3563000000000001</v>
+      </c>
+      <c r="F49">
+        <v>5.74</v>
+      </c>
+      <c r="G49">
+        <v>-2.83</v>
+      </c>
+      <c r="H49">
+        <v>0.12</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50">
+        <v>12.96</v>
+      </c>
+      <c r="C50">
+        <v>7.9100999999999999</v>
+      </c>
+      <c r="D50">
+        <v>7.9100999999999999</v>
+      </c>
+      <c r="F50">
+        <v>2.92</v>
+      </c>
+      <c r="G50">
+        <v>5.88</v>
+      </c>
+      <c r="H50">
+        <v>0.74</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51">
+        <v>12.66</v>
+      </c>
+      <c r="C51">
+        <v>-2.3148</v>
+      </c>
+      <c r="D51">
+        <v>-2.3148</v>
+      </c>
+      <c r="F51">
+        <v>-3.71</v>
+      </c>
+      <c r="G51">
+        <v>0.43</v>
+      </c>
+      <c r="H51">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52">
+        <v>13.37</v>
+      </c>
+      <c r="C52">
+        <v>5.6082000000000001</v>
+      </c>
+      <c r="D52">
+        <v>5.6082000000000001</v>
+      </c>
+      <c r="F52">
+        <v>3.54</v>
+      </c>
+      <c r="G52">
+        <v>1.41</v>
+      </c>
+      <c r="H52">
+        <v>2.75</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53">
+        <v>14.48</v>
+      </c>
+      <c r="C53">
+        <v>8.3021999999999991</v>
+      </c>
+      <c r="D53">
+        <v>8.3021999999999991</v>
+      </c>
+      <c r="F53">
+        <v>6.44</v>
+      </c>
+      <c r="G53">
+        <v>1.59</v>
+      </c>
+      <c r="H53">
+        <v>2.02</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54">
+        <v>15.53</v>
+      </c>
+      <c r="C54">
+        <v>7.2514000000000003</v>
+      </c>
+      <c r="D54">
+        <v>7.2514000000000003</v>
+      </c>
+      <c r="F54">
+        <v>2.02</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>3.14</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55">
+        <v>14.13</v>
+      </c>
+      <c r="C55">
+        <v>-9.0147999999999993</v>
+      </c>
+      <c r="D55">
+        <v>-9.0248000000000008</v>
+      </c>
+      <c r="F55">
+        <v>-8</v>
+      </c>
+      <c r="G55">
+        <v>-0.03</v>
+      </c>
+      <c r="H55">
+        <v>-2.36</v>
+      </c>
+      <c r="I55">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56">
+        <v>12.79</v>
+      </c>
+      <c r="C56">
+        <v>-9.4833999999999996</v>
+      </c>
+      <c r="D56">
+        <v>-9.4933999999999994</v>
+      </c>
+      <c r="F56">
+        <v>-5.21</v>
+      </c>
+      <c r="G56">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="H56">
+        <v>-4.28</v>
+      </c>
+      <c r="I56">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57">
+        <v>13.79</v>
+      </c>
+      <c r="C57">
+        <v>7.8186</v>
+      </c>
+      <c r="D57">
+        <v>7.8086000000000002</v>
+      </c>
+      <c r="F57">
+        <v>7.24</v>
+      </c>
+      <c r="G57">
+        <v>-0.08</v>
+      </c>
+      <c r="H57">
+        <v>0.13</v>
+      </c>
+      <c r="I57">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58">
+        <v>12.67</v>
+      </c>
+      <c r="C58">
+        <v>-8.1218000000000004</v>
+      </c>
+      <c r="D58">
+        <v>-8.1318000000000001</v>
+      </c>
+      <c r="F58">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="G58">
+        <v>-2.92</v>
+      </c>
+      <c r="H58">
+        <v>-1.71</v>
+      </c>
+      <c r="I58">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59">
+        <v>14.23</v>
+      </c>
+      <c r="C59">
+        <v>12.3125</v>
+      </c>
+      <c r="D59">
+        <v>12.3025</v>
+      </c>
+      <c r="F59">
+        <v>9.24</v>
+      </c>
+      <c r="G59">
+        <v>3.97</v>
+      </c>
+      <c r="H59">
+        <v>-3.14</v>
+      </c>
+      <c r="I59">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60">
+        <v>14.76</v>
+      </c>
+      <c r="C60">
+        <v>3.7244999999999999</v>
+      </c>
+      <c r="D60">
+        <v>3.7145000000000001</v>
+      </c>
+      <c r="F60">
+        <v>3.89</v>
+      </c>
+      <c r="G60">
+        <v>0.91</v>
+      </c>
+      <c r="H60">
+        <v>-2.14</v>
+      </c>
+      <c r="I60">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61">
+        <v>15.35</v>
+      </c>
+      <c r="C61">
+        <v>3.9973000000000001</v>
+      </c>
+      <c r="D61">
+        <v>3.9872999999999998</v>
+      </c>
+      <c r="F61">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G61">
+        <v>3.71</v>
+      </c>
+      <c r="H61">
+        <v>-0.64</v>
+      </c>
+      <c r="I61">
         <v>0.01</v>
       </c>
     </row>
